--- a/2014年度金杉町会/平成２６年度/H26年度会計.xlsx
+++ b/2014年度金杉町会/平成２６年度/H26年度会計.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\リムーバブル ディスク\平成２６年度\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="14895" windowHeight="8160" activeTab="1"/>
   </bookViews>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$H$86</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -502,7 +507,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0&quot;円&quot;"/>
   </numFmts>
@@ -591,6 +596,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -637,7 +650,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -669,9 +682,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -703,6 +717,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -878,7 +893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1282,11 +1297,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
@@ -2596,12 +2611,12 @@
   <phoneticPr fontId="1"/>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" fitToWidth="2" orientation="portrait" blackAndWhite="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="2" orientation="portrait" blackAndWhite="1" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
